--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.955187333333333</v>
+        <v>0.6288379999999999</v>
       </c>
       <c r="H2">
-        <v>8.865562000000001</v>
+        <v>1.886514</v>
       </c>
       <c r="I2">
-        <v>0.0151950616208272</v>
+        <v>0.003263417952351538</v>
       </c>
       <c r="J2">
-        <v>0.0151950616208272</v>
+        <v>0.003263417952351539</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N2">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q2">
-        <v>50.73031201328669</v>
+        <v>1.274727151982666</v>
       </c>
       <c r="R2">
-        <v>456.5728081195801</v>
+        <v>11.472544367844</v>
       </c>
       <c r="S2">
-        <v>0.000851448283831109</v>
+        <v>2.152643346960648E-05</v>
       </c>
       <c r="T2">
-        <v>0.0008514482838311089</v>
+        <v>2.152643346960648E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.955187333333333</v>
+        <v>0.6288379999999999</v>
       </c>
       <c r="H3">
-        <v>8.865562000000001</v>
+        <v>1.886514</v>
       </c>
       <c r="I3">
-        <v>0.0151950616208272</v>
+        <v>0.003263417952351538</v>
       </c>
       <c r="J3">
-        <v>0.0151950616208272</v>
+        <v>0.003263417952351539</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q3">
-        <v>757.8409628265324</v>
+        <v>161.2619240772026</v>
       </c>
       <c r="R3">
-        <v>6820.568665438792</v>
+        <v>1451.357316694824</v>
       </c>
       <c r="S3">
-        <v>0.01271946419423887</v>
+        <v>0.002723244793546091</v>
       </c>
       <c r="T3">
-        <v>0.01271946419423887</v>
+        <v>0.002723244793546091</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.955187333333333</v>
+        <v>0.6288379999999999</v>
       </c>
       <c r="H4">
-        <v>8.865562000000001</v>
+        <v>1.886514</v>
       </c>
       <c r="I4">
-        <v>0.0151950616208272</v>
+        <v>0.003263417952351538</v>
       </c>
       <c r="J4">
-        <v>0.0151950616208272</v>
+        <v>0.003263417952351539</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N4">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q4">
-        <v>96.76875781281021</v>
+        <v>30.71261498129533</v>
       </c>
       <c r="R4">
-        <v>870.918820315292</v>
+        <v>276.413534831658</v>
       </c>
       <c r="S4">
-        <v>0.001624149142757212</v>
+        <v>0.0005186467253358412</v>
       </c>
       <c r="T4">
-        <v>0.001624149142757212</v>
+        <v>0.0005186467253358411</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>501.336335</v>
       </c>
       <c r="I5">
-        <v>0.8592615451885246</v>
+        <v>0.8672450858064795</v>
       </c>
       <c r="J5">
-        <v>0.8592615451885246</v>
+        <v>0.8672450858064795</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N5">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q5">
-        <v>2868.735078289184</v>
+        <v>338.7555239452122</v>
       </c>
       <c r="R5">
-        <v>25818.61570460266</v>
+        <v>3048.79971550691</v>
       </c>
       <c r="S5">
-        <v>0.04814832517757226</v>
+        <v>0.005720595373940424</v>
       </c>
       <c r="T5">
-        <v>0.04814832517757226</v>
+        <v>0.005720595373940423</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>501.336335</v>
       </c>
       <c r="I6">
-        <v>0.8592615451885246</v>
+        <v>0.8672450858064795</v>
       </c>
       <c r="J6">
-        <v>0.8592615451885246</v>
+        <v>0.8672450858064795</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q6">
         <v>42854.94938914476</v>
@@ -818,10 +818,10 @@
         <v>385694.5445023028</v>
       </c>
       <c r="S6">
-        <v>0.7192696370860014</v>
+        <v>0.7236954319470881</v>
       </c>
       <c r="T6">
-        <v>0.7192696370860014</v>
+        <v>0.723695431947088</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>501.336335</v>
       </c>
       <c r="I7">
-        <v>0.8592615451885246</v>
+        <v>0.8672450858064795</v>
       </c>
       <c r="J7">
-        <v>0.8592615451885246</v>
+        <v>0.8672450858064795</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N7">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q7">
-        <v>5472.1510474324</v>
+        <v>8161.799929917667</v>
       </c>
       <c r="R7">
-        <v>49249.35942689161</v>
+        <v>73456.199369259</v>
       </c>
       <c r="S7">
-        <v>0.09184358292495079</v>
+        <v>0.1378290584854511</v>
       </c>
       <c r="T7">
-        <v>0.09184358292495079</v>
+        <v>0.137829058485451</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>24.41610666666667</v>
+        <v>24.952113</v>
       </c>
       <c r="H8">
-        <v>73.24832000000001</v>
+        <v>74.85633900000001</v>
       </c>
       <c r="I8">
-        <v>0.1255433931906482</v>
+        <v>0.129491496241169</v>
       </c>
       <c r="J8">
-        <v>0.1255433931906482</v>
+        <v>0.129491496241169</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N8">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q8">
-        <v>419.1398275765335</v>
+        <v>50.580810861366</v>
       </c>
       <c r="R8">
-        <v>3772.258448188801</v>
+        <v>455.227297752294</v>
       </c>
       <c r="S8">
-        <v>0.007034766251424545</v>
+        <v>0.0008541627580085855</v>
       </c>
       <c r="T8">
-        <v>0.007034766251424545</v>
+        <v>0.0008541627580085856</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>24.41610666666667</v>
+        <v>24.952113</v>
       </c>
       <c r="H9">
-        <v>73.24832000000001</v>
+        <v>74.85633900000001</v>
       </c>
       <c r="I9">
-        <v>0.1255433931906482</v>
+        <v>0.129491496241169</v>
       </c>
       <c r="J9">
-        <v>0.1255433931906482</v>
+        <v>0.129491496241169</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q9">
-        <v>6261.371513077902</v>
+        <v>6398.827284883836</v>
       </c>
       <c r="R9">
-        <v>56352.34361770112</v>
+        <v>57589.44556395453</v>
       </c>
       <c r="S9">
-        <v>0.1050897149586401</v>
+        <v>0.1080575789237033</v>
       </c>
       <c r="T9">
-        <v>0.1050897149586401</v>
+        <v>0.1080575789237033</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>24.41610666666667</v>
+        <v>24.952113</v>
       </c>
       <c r="H10">
-        <v>73.24832000000001</v>
+        <v>74.85633900000001</v>
       </c>
       <c r="I10">
-        <v>0.1255433931906482</v>
+        <v>0.129491496241169</v>
       </c>
       <c r="J10">
-        <v>0.1255433931906482</v>
+        <v>0.129491496241169</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N10">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q10">
-        <v>799.514902526791</v>
+        <v>1218.667827864687</v>
       </c>
       <c r="R10">
-        <v>7195.63412274112</v>
+        <v>10968.01045078219</v>
       </c>
       <c r="S10">
-        <v>0.01341891198058352</v>
+        <v>0.02057975455945709</v>
       </c>
       <c r="T10">
-        <v>0.01341891198058352</v>
+        <v>0.02057975455945708</v>
       </c>
     </row>
   </sheetData>
